--- a/model/model_evaluation/daily_model_results.xlsx
+++ b/model/model_evaluation/daily_model_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,71 +444,71 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ALTAGAS LTD</t>
+          <t>FMC CORP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.33858267716536</v>
+        <v>70.72872014696877</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>FMC CORP</t>
+          <t>ALTAGAS LTD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.99212598425197</v>
+        <v>21.80036742192284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>STORA ENSO</t>
+          <t>WEYERHAEUSER CO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.43307086614173</v>
+        <v>39.43661971830986</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>WEYERHAEUSER CO</t>
+          <t>BP PLC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.31496062992126</v>
+        <v>80.83282302510717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>INTERNATIONAL PAPER CO</t>
+          <t>STORA ENSO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.0236220472441</v>
+        <v>19.2896509491733</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WILMAR INTERNATIONAL LTD</t>
+          <t>BHP GROUP</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.692913385826772</v>
+        <v>5.143906919779547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BHP GROUP</t>
+          <t>INTERNATIONAL PAPER CO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.85826771653543</v>
+        <v>0.1837109614206981</v>
       </c>
     </row>
     <row r="9">
@@ -518,17 +518,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.76377952755906</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>BP PLC</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.889763779527559</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,108 +550,84 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ALTAGAS LTD</t>
+          <t>FMC CORP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0222 </t>
+          <t xml:space="preserve">-0.0192 </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>FMC CORP</t>
+          <t>ALTAGAS LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0381 </t>
+          <t xml:space="preserve">-0.0803 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>STORA ENSO</t>
+          <t>WEYERHAEUSER CO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0034 </t>
+          <t xml:space="preserve">0.0279 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>WEYERHAEUSER CO</t>
+          <t>BP PLC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0249 </t>
+          <t xml:space="preserve">-0.0268 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>INTERNATIONAL PAPER CO</t>
+          <t>STORA ENSO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0240 </t>
+          <t xml:space="preserve">-0.0662 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WILMAR INTERNATIONAL LTD</t>
+          <t>BHP GROUP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0689 </t>
+          <t xml:space="preserve">-0.0102 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BHP GROUP</t>
+          <t>INTERNATIONAL PAPER CO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0541 </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>TOTALENERGIES SE</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0461 </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>BP PLC</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.0567 </t>
+          <t xml:space="preserve">-0.5372 </t>
         </is>
       </c>
     </row>

--- a/model/model_evaluation/daily_model_results.xlsx
+++ b/model/model_evaluation/daily_model_results.xlsx
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.72872014696877</v>
+        <v>70.59902200488997</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.80036742192284</v>
+        <v>21.76039119804401</v>
       </c>
     </row>
     <row r="4">
@@ -468,27 +468,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.43661971830986</v>
+        <v>39.36430317848411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>BP PLC</t>
+          <t>STORA ENSO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.83282302510717</v>
+        <v>88.32518337408312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>STORA ENSO</t>
+          <t>BP PLC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.2896509491733</v>
+        <v>80.68459657701712</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.143906919779547</v>
+        <v>5.134474327628362</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1837109614206981</v>
+        <v>0.1833740831295844</v>
       </c>
     </row>
     <row r="9">
@@ -586,24 +586,24 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>BP PLC</t>
+          <t>STORA ENSO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0268 </t>
+          <t xml:space="preserve">0.0183 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>STORA ENSO</t>
+          <t>BP PLC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0662 </t>
+          <t xml:space="preserve">-0.0268 </t>
         </is>
       </c>
     </row>
